--- a/3_Component_Results/IMPORT/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/IMPORT/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Q0</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -440,13 +443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,296 +474,320 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-1.983823536718116</v>
+        <v>-1.287171013491868</v>
       </c>
       <c r="C2">
-        <v>-0.4138586014573448</v>
+        <v>0.2827939217689028</v>
       </c>
       <c r="D2">
-        <v>1.800044583473867</v>
+        <v>2.496697106700115</v>
       </c>
       <c r="E2">
-        <v>1.21344689406104</v>
+        <v>1.910099417287288</v>
       </c>
       <c r="F2">
-        <v>-0.3966593912439108</v>
+        <v>0.2999931319823368</v>
       </c>
       <c r="G2">
-        <v>-0.8857220444791337</v>
+        <v>-0.1890695212528862</v>
       </c>
       <c r="H2">
-        <v>1.115954873459078</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>1.812607396685326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.342663983152272</v>
+        <v>0.5817192572292627</v>
       </c>
       <c r="C3">
-        <v>1.87123920177894</v>
+        <v>2.795622442160475</v>
       </c>
       <c r="D3">
-        <v>1.284641512366113</v>
+        <v>2.209024752747648</v>
       </c>
       <c r="E3">
-        <v>-0.325464772938838</v>
+        <v>0.5989184674426966</v>
       </c>
       <c r="F3">
-        <v>-0.8145274261740609</v>
+        <v>0.1098558142074737</v>
       </c>
       <c r="G3">
-        <v>1.187149491764151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>2.111532732145686</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>1.93401732067124</v>
+        <v>2.860352663279089</v>
       </c>
       <c r="C4">
-        <v>1.347419631258413</v>
+        <v>2.273754973866262</v>
       </c>
       <c r="D4">
-        <v>-0.2626866540465385</v>
+        <v>0.6636486885613111</v>
       </c>
       <c r="E4">
-        <v>-0.7517493072817615</v>
+        <v>0.1745860353260881</v>
       </c>
       <c r="F4">
-        <v>1.249927610656451</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>2.1762629532643</v>
+      </c>
+      <c r="G4">
+        <v>0.9355192051181277</v>
+      </c>
+      <c r="H4">
+        <v>-0.004342528784518129</v>
+      </c>
+      <c r="I4">
+        <v>1.104249791356595</v>
+      </c>
+      <c r="J4">
+        <v>0.5344944032044353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>2.595767508171838</v>
+        <v>3.993739063922089</v>
       </c>
       <c r="C5">
-        <v>0.9856612228668868</v>
+        <v>2.383632778617138</v>
       </c>
       <c r="D5">
-        <v>0.4965985696316639</v>
+        <v>1.894570125381915</v>
       </c>
       <c r="E5">
-        <v>2.498275487569876</v>
+        <v>3.896247043320127</v>
       </c>
       <c r="F5">
-        <v>1.257531739423704</v>
+        <v>2.655503295173955</v>
       </c>
       <c r="G5">
-        <v>0.3176700055210577</v>
+        <v>1.715641561271309</v>
       </c>
       <c r="H5">
-        <v>1.426262325662171</v>
+        <v>2.824233881412422</v>
       </c>
       <c r="I5">
-        <v>0.8565069375100112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>2.254478493260262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0.04571361703591642</v>
+        <v>1.327939736723062</v>
       </c>
       <c r="C6">
-        <v>-0.4433490361993065</v>
+        <v>0.838877083487839</v>
       </c>
       <c r="D6">
-        <v>1.558327881738906</v>
+        <v>2.840554001426051</v>
       </c>
       <c r="E6">
-        <v>0.3175841335927331</v>
+        <v>1.599810253279879</v>
       </c>
       <c r="F6">
-        <v>-0.6222776003099127</v>
+        <v>0.6599485193772328</v>
       </c>
       <c r="G6">
-        <v>0.4863147198312007</v>
+        <v>1.768540839518346</v>
       </c>
       <c r="H6">
-        <v>-0.08344066832095931</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>1.198785451366186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.6371095729139228</v>
+        <v>0.596462224740588</v>
       </c>
       <c r="C7">
-        <v>1.364567345024289</v>
+        <v>2.5981391426788</v>
       </c>
       <c r="D7">
-        <v>0.1238235968781168</v>
+        <v>1.357395394532628</v>
       </c>
       <c r="E7">
-        <v>-0.816038137024529</v>
+        <v>0.4175336606299818</v>
       </c>
       <c r="F7">
-        <v>0.2925541831165844</v>
+        <v>1.526125980771095</v>
       </c>
       <c r="G7">
-        <v>-0.2772012050355755</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0.9563705926189352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>1.530104285293111</v>
+        <v>2.147895666590351</v>
       </c>
       <c r="C8">
-        <v>0.2893605371469391</v>
+        <v>0.9071519184441783</v>
       </c>
       <c r="D8">
-        <v>-0.6505011967557067</v>
+        <v>-0.03270981545846752</v>
       </c>
       <c r="E8">
-        <v>0.4580911233854067</v>
+        <v>1.075882504682646</v>
       </c>
       <c r="F8">
-        <v>-0.1116642647667533</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0.5061271165304859</v>
+      </c>
+      <c r="G8">
+        <v>0.8472646462226479</v>
+      </c>
+      <c r="H8">
+        <v>0.7681077429517771</v>
+      </c>
+      <c r="I8">
+        <v>0.5692784093517318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.1315770554702993</v>
+        <v>0.2723519233738259</v>
       </c>
       <c r="C9">
-        <v>-1.071438789372945</v>
+        <v>-0.66750981052882</v>
       </c>
       <c r="D9">
-        <v>0.03715353076816832</v>
+        <v>0.4410825096122935</v>
       </c>
       <c r="E9">
-        <v>-0.5326018573839917</v>
+        <v>-0.1286728785398665</v>
       </c>
       <c r="F9">
-        <v>-0.1914643276918298</v>
+        <v>0.2124646511522954</v>
       </c>
       <c r="G9">
-        <v>-0.2706212309627005</v>
+        <v>0.1333077478814246</v>
       </c>
       <c r="H9">
-        <v>-0.4694505645627458</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>-0.0655215857186206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-1.124255143331186</v>
+        <v>-0.6913225886447478</v>
       </c>
       <c r="C10">
-        <v>-0.01566282319007251</v>
+        <v>0.4172697314963657</v>
       </c>
       <c r="D10">
-        <v>-0.5854182113422326</v>
+        <v>-0.1524856566557943</v>
       </c>
       <c r="E10">
-        <v>-0.2442806816500706</v>
+        <v>0.1886518730363676</v>
       </c>
       <c r="F10">
-        <v>-0.3234375849209414</v>
+        <v>0.1094949697654968</v>
       </c>
       <c r="G10">
-        <v>-0.5222669185209866</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>-0.0893343638345484</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.00373103197519814</v>
+        <v>0.2489548475442122</v>
       </c>
       <c r="C11">
-        <v>-0.5660243561769619</v>
+        <v>-0.3208005406079479</v>
       </c>
       <c r="D11">
-        <v>-0.2248868264848</v>
+        <v>0.02033698908421404</v>
       </c>
       <c r="E11">
-        <v>-0.3040437297556707</v>
+        <v>-0.05881991418665673</v>
       </c>
       <c r="F11">
-        <v>-0.5028730633557159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>-0.257649247786702</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.4562021771377885</v>
+        <v>-0.4452547693108855</v>
       </c>
       <c r="C12">
-        <v>-0.1150646474456266</v>
+        <v>-0.1041172396187236</v>
       </c>
       <c r="D12">
-        <v>-0.1942215507164974</v>
+        <v>-0.1832741428895944</v>
       </c>
       <c r="E12">
-        <v>-0.3930508843165426</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>-0.3821034764896396</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.2608656334573595</v>
+        <v>-0.1205552980991258</v>
       </c>
       <c r="C13">
-        <v>-0.3400225367282302</v>
+        <v>-0.1997122013699966</v>
       </c>
       <c r="D13">
-        <v>-0.5388518703282754</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>-0.3985415349700418</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.3629407821831024</v>
+        <v>-0.379135158058041</v>
       </c>
       <c r="C14">
-        <v>-0.5617701157831476</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>-0.5779644916580863</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>-0.3553823524178113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>-0.3996235179026385</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/IMPORT/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/IMPORT/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Q0</t>
   </si>
@@ -41,6 +41,120 @@
   </si>
   <si>
     <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>2007-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -443,13 +557,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,317 +591,1663 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
+        <v>-1.056018808708903</v>
+      </c>
+      <c r="C2">
+        <v>3.824402354823998</v>
+      </c>
+      <c r="D2">
+        <v>-1.383940393044757</v>
+      </c>
+      <c r="E2">
+        <v>6.539789695468809</v>
+      </c>
+      <c r="F2">
+        <v>7.788423147707714</v>
+      </c>
+      <c r="G2">
+        <v>7.84258229064643</v>
+      </c>
+      <c r="H2">
+        <v>-2.541935847452085</v>
+      </c>
+      <c r="I2">
+        <v>4.048513823737675</v>
+      </c>
+      <c r="J2">
+        <v>-3.65782291729413</v>
+      </c>
+      <c r="K2">
+        <v>-5.339900910512984</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>-1.960441095637212</v>
+      </c>
+      <c r="C3">
+        <v>5.963288992876353</v>
+      </c>
+      <c r="D3">
+        <v>7.211922445115259</v>
+      </c>
+      <c r="E3">
+        <v>7.266081588053974</v>
+      </c>
+      <c r="F3">
+        <v>-3.118436550044541</v>
+      </c>
+      <c r="G3">
+        <v>3.47201312114522</v>
+      </c>
+      <c r="H3">
+        <v>-4.234323619886585</v>
+      </c>
+      <c r="I3">
+        <v>-5.91640161310544</v>
+      </c>
+      <c r="J3">
+        <v>-0.07812335641517998</v>
+      </c>
+      <c r="K3">
+        <v>1.058780575963975</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>6.844996325157663</v>
+      </c>
+      <c r="C4">
+        <v>6.899155468096378</v>
+      </c>
+      <c r="D4">
+        <v>-3.485362670002137</v>
+      </c>
+      <c r="E4">
+        <v>3.105087001187624</v>
+      </c>
+      <c r="F4">
+        <v>-4.601249739844182</v>
+      </c>
+      <c r="G4">
+        <v>-6.283327733063036</v>
+      </c>
+      <c r="H4">
+        <v>-0.4450494763727761</v>
+      </c>
+      <c r="I4">
+        <v>0.6918544560063788</v>
+      </c>
+      <c r="J4">
+        <v>0.02530780876220384</v>
+      </c>
+      <c r="K4">
+        <v>-1.403161654151166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>-4.866032082095426</v>
+      </c>
+      <c r="C5">
+        <v>1.724417589094334</v>
+      </c>
+      <c r="D5">
+        <v>-5.981919151937471</v>
+      </c>
+      <c r="E5">
+        <v>-7.663997145156325</v>
+      </c>
+      <c r="F5">
+        <v>-1.825718888466066</v>
+      </c>
+      <c r="G5">
+        <v>-0.6888149560869109</v>
+      </c>
+      <c r="H5">
+        <v>-1.355361603331086</v>
+      </c>
+      <c r="I5">
+        <v>-2.783831066244456</v>
+      </c>
+      <c r="J5">
+        <v>-2.535453976003647</v>
+      </c>
+      <c r="K5">
+        <v>0.8960175827520275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>-6.393194687410066</v>
+      </c>
+      <c r="C6">
+        <v>-8.07527268062892</v>
+      </c>
+      <c r="D6">
+        <v>-2.236994423938661</v>
+      </c>
+      <c r="E6">
+        <v>-1.100090491559506</v>
+      </c>
+      <c r="F6">
+        <v>-1.766637138803681</v>
+      </c>
+      <c r="G6">
+        <v>-3.195106601717051</v>
+      </c>
+      <c r="H6">
+        <v>-2.946729511476242</v>
+      </c>
+      <c r="I6">
+        <v>0.4847420472794327</v>
+      </c>
+      <c r="J6">
+        <v>-0.3256240869557202</v>
+      </c>
+      <c r="K6">
+        <v>-2.542321688793187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>-2.000221237486134</v>
+      </c>
+      <c r="C7">
+        <v>-0.8633173051069789</v>
+      </c>
+      <c r="D7">
+        <v>-1.529863952351154</v>
+      </c>
+      <c r="E7">
+        <v>-2.958333415264524</v>
+      </c>
+      <c r="F7">
+        <v>-2.709956325023715</v>
+      </c>
+      <c r="G7">
+        <v>0.7215152337319595</v>
+      </c>
+      <c r="H7">
+        <v>-0.08885090050319348</v>
+      </c>
+      <c r="I7">
+        <v>-2.30554850234066</v>
+      </c>
+      <c r="J7">
+        <v>-1.11045427410554</v>
+      </c>
+      <c r="K7">
+        <v>1.246081975546043</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>-0.8900620177775295</v>
+      </c>
+      <c r="C8">
+        <v>-2.3185314806909</v>
+      </c>
+      <c r="D8">
+        <v>-2.070154390450091</v>
+      </c>
+      <c r="E8">
+        <v>1.361317168305584</v>
+      </c>
+      <c r="F8">
+        <v>0.550951034070431</v>
+      </c>
+      <c r="G8">
+        <v>-1.665746567767036</v>
+      </c>
+      <c r="H8">
+        <v>-0.4706523395319154</v>
+      </c>
+      <c r="I8">
+        <v>1.885883910119667</v>
+      </c>
+      <c r="J8">
+        <v>2.67322279758254</v>
+      </c>
+      <c r="K8">
+        <v>-1.359856115119376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>-2.142871019718866</v>
+      </c>
+      <c r="C9">
+        <v>1.288600539036808</v>
+      </c>
+      <c r="D9">
+        <v>0.4782344048016555</v>
+      </c>
+      <c r="E9">
+        <v>-1.738463197035811</v>
+      </c>
+      <c r="F9">
+        <v>-0.543368968800691</v>
+      </c>
+      <c r="G9">
+        <v>1.813167280850892</v>
+      </c>
+      <c r="H9">
+        <v>2.600506168313764</v>
+      </c>
+      <c r="I9">
+        <v>-1.432572744388152</v>
+      </c>
+      <c r="J9">
+        <v>-0.3112167028359337</v>
+      </c>
+      <c r="K9">
+        <v>-0.78482185336655</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>1.836070256854039</v>
+      </c>
+      <c r="C10">
+        <v>-0.380627344983427</v>
+      </c>
+      <c r="D10">
+        <v>0.814466883251693</v>
+      </c>
+      <c r="E10">
+        <v>3.171003132903276</v>
+      </c>
+      <c r="F10">
+        <v>3.958342020366148</v>
+      </c>
+      <c r="G10">
+        <v>-0.07473689233576786</v>
+      </c>
+      <c r="H10">
+        <v>1.04661914921645</v>
+      </c>
+      <c r="I10">
+        <v>0.573013998685834</v>
+      </c>
+      <c r="J10">
+        <v>-0.3501652793966519</v>
+      </c>
+      <c r="K10">
+        <v>0.739137407015374</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>0.8921838712612409</v>
+      </c>
+      <c r="C11">
+        <v>3.248720120912824</v>
+      </c>
+      <c r="D11">
+        <v>4.036059008375696</v>
+      </c>
+      <c r="E11">
+        <v>0.002980095673779992</v>
+      </c>
+      <c r="F11">
+        <v>1.124336137225998</v>
+      </c>
+      <c r="G11">
+        <v>0.6507309866953819</v>
+      </c>
+      <c r="H11">
+        <v>-0.272448291387104</v>
+      </c>
+      <c r="I11">
+        <v>0.8168543950249219</v>
+      </c>
+      <c r="J11">
+        <v>0.258268530866405</v>
+      </c>
+      <c r="K11">
+        <v>0.07856287755122393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>3.663231062531237</v>
+      </c>
+      <c r="C12">
+        <v>-0.369847850170679</v>
+      </c>
+      <c r="D12">
+        <v>0.7515081913815391</v>
+      </c>
+      <c r="E12">
+        <v>0.2779030408509229</v>
+      </c>
+      <c r="F12">
+        <v>-0.645276237231563</v>
+      </c>
+      <c r="G12">
+        <v>0.4440264491804629</v>
+      </c>
+      <c r="H12">
+        <v>-0.114559414978054</v>
+      </c>
+      <c r="I12">
+        <v>-0.2942650682932351</v>
+      </c>
+      <c r="J12">
+        <v>0.09918592472438781</v>
+      </c>
+      <c r="K12">
+        <v>1.076250235802796</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>-0.1401321300491949</v>
+      </c>
+      <c r="C13">
+        <v>-0.6137372805798111</v>
+      </c>
+      <c r="D13">
+        <v>-1.536916558662297</v>
+      </c>
+      <c r="E13">
+        <v>-0.4476138722502712</v>
+      </c>
+      <c r="F13">
+        <v>-1.006199736408788</v>
+      </c>
+      <c r="G13">
+        <v>-1.185905389723969</v>
+      </c>
+      <c r="H13">
+        <v>-0.7924543967063462</v>
+      </c>
+      <c r="I13">
+        <v>0.1846099143720617</v>
+      </c>
+      <c r="J13">
+        <v>-0.4731291047085751</v>
+      </c>
+      <c r="K13">
+        <v>0.1514065252846004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>-1.651613410242431</v>
+      </c>
+      <c r="C14">
+        <v>-0.5623107238304054</v>
+      </c>
+      <c r="D14">
+        <v>-1.120896587988922</v>
+      </c>
+      <c r="E14">
+        <v>-1.300602241304103</v>
+      </c>
+      <c r="F14">
+        <v>-0.9071512482864804</v>
+      </c>
+      <c r="G14">
+        <v>0.06991306279192749</v>
+      </c>
+      <c r="H14">
+        <v>-0.5878259562887093</v>
+      </c>
+      <c r="I14">
+        <v>0.03670967370446621</v>
+      </c>
+      <c r="J14">
+        <v>-0.8395235127057944</v>
+      </c>
+      <c r="K14">
+        <v>0.4601212449020281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>-1.050731344201344</v>
+      </c>
+      <c r="C15">
+        <v>-1.230436997516525</v>
+      </c>
+      <c r="D15">
+        <v>-0.8369860044989025</v>
+      </c>
+      <c r="E15">
+        <v>0.1400783065795054</v>
+      </c>
+      <c r="F15">
+        <v>-0.5176607125011313</v>
+      </c>
+      <c r="G15">
+        <v>0.1068749174920441</v>
+      </c>
+      <c r="H15">
+        <v>-0.7693582689182165</v>
+      </c>
+      <c r="I15">
+        <v>0.530286488689606</v>
+      </c>
+      <c r="J15">
+        <v>0.4659284474827899</v>
+      </c>
+      <c r="K15">
+        <v>-1.862331545976608</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>-0.7269844074470668</v>
+      </c>
+      <c r="C16">
+        <v>0.2500799036313411</v>
+      </c>
+      <c r="D16">
+        <v>-0.4076591154492957</v>
+      </c>
+      <c r="E16">
+        <v>0.2168765145438798</v>
+      </c>
+      <c r="F16">
+        <v>-0.6593566718663808</v>
+      </c>
+      <c r="G16">
+        <v>0.6402880857414417</v>
+      </c>
+      <c r="H16">
+        <v>0.5759300445346256</v>
+      </c>
+      <c r="I16">
+        <v>-1.752329948924772</v>
+      </c>
+      <c r="J16">
+        <v>0.3387401927482998</v>
+      </c>
+      <c r="K16">
+        <v>-1.659687572277652</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>-0.128149088457157</v>
+      </c>
+      <c r="C17">
+        <v>0.4963865415360185</v>
+      </c>
+      <c r="D17">
+        <v>-0.3798466448742421</v>
+      </c>
+      <c r="E17">
+        <v>0.9197981127335804</v>
+      </c>
+      <c r="F17">
+        <v>0.8554400715267643</v>
+      </c>
+      <c r="G17">
+        <v>-1.472819921932633</v>
+      </c>
+      <c r="H17">
+        <v>0.6182502197404385</v>
+      </c>
+      <c r="I17">
+        <v>-1.380177545285513</v>
+      </c>
+      <c r="J17">
+        <v>0.1245328521850193</v>
+      </c>
+      <c r="K17">
+        <v>-0.9727190283491831</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>-0.220427476755602</v>
+      </c>
+      <c r="C18">
+        <v>1.07921728085222</v>
+      </c>
+      <c r="D18">
+        <v>1.014859239645404</v>
+      </c>
+      <c r="E18">
+        <v>-1.313400753813993</v>
+      </c>
+      <c r="F18">
+        <v>0.7776693878590786</v>
+      </c>
+      <c r="G18">
+        <v>-1.220758377166873</v>
+      </c>
+      <c r="H18">
+        <v>0.2839520203036594</v>
+      </c>
+      <c r="I18">
+        <v>-0.813299860230543</v>
+      </c>
+      <c r="J18">
+        <v>2.271070547289413</v>
+      </c>
+      <c r="K18">
+        <v>-0.5339840274512249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>0.8909548768504403</v>
+      </c>
+      <c r="C19">
+        <v>-1.437305116608957</v>
+      </c>
+      <c r="D19">
+        <v>0.6537650250641145</v>
+      </c>
+      <c r="E19">
+        <v>-1.344662739961837</v>
+      </c>
+      <c r="F19">
+        <v>0.1600476575086953</v>
+      </c>
+      <c r="G19">
+        <v>-0.9372042230255071</v>
+      </c>
+      <c r="H19">
+        <v>2.147166184494449</v>
+      </c>
+      <c r="I19">
+        <v>-0.6578883902461889</v>
+      </c>
+      <c r="J19">
+        <v>-0.2479144373244031</v>
+      </c>
+      <c r="K19">
+        <v>0.3174898413959222</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>0.4779291268729679</v>
+      </c>
+      <c r="C20">
+        <v>-1.520498638152983</v>
+      </c>
+      <c r="D20">
+        <v>-0.01578824068245122</v>
+      </c>
+      <c r="E20">
+        <v>-1.113040121216654</v>
+      </c>
+      <c r="F20">
+        <v>1.971330286303302</v>
+      </c>
+      <c r="G20">
+        <v>-0.8337242884373355</v>
+      </c>
+      <c r="H20">
+        <v>-0.4237503355155496</v>
+      </c>
+      <c r="I20">
+        <v>0.1416539432047756</v>
+      </c>
+      <c r="J20">
+        <v>0.1762496644844505</v>
+      </c>
+      <c r="K20">
+        <v>1.150264016608733</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>0.1957424110117474</v>
+      </c>
+      <c r="C21">
+        <v>-0.901509469522455</v>
+      </c>
+      <c r="D21">
+        <v>2.182860937997501</v>
+      </c>
+      <c r="E21">
+        <v>-0.6221936367431369</v>
+      </c>
+      <c r="F21">
+        <v>-0.212219683821351</v>
+      </c>
+      <c r="G21">
+        <v>0.3531845948989742</v>
+      </c>
+      <c r="H21">
+        <v>0.3877803161786491</v>
+      </c>
+      <c r="I21">
+        <v>1.361794668302932</v>
+      </c>
+      <c r="J21">
+        <v>1.019111240892582</v>
+      </c>
+      <c r="K21">
+        <v>-0.1841770530307969</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>2.144402632465072</v>
+      </c>
+      <c r="C22">
+        <v>-0.6606519422755659</v>
+      </c>
+      <c r="D22">
+        <v>-0.2506779893537801</v>
+      </c>
+      <c r="E22">
+        <v>0.3147262893665452</v>
+      </c>
+      <c r="F22">
+        <v>0.34932201064622</v>
+      </c>
+      <c r="G22">
+        <v>1.323336362770503</v>
+      </c>
+      <c r="H22">
+        <v>0.980652935360153</v>
+      </c>
+      <c r="I22">
+        <v>-0.2226353585632259</v>
+      </c>
+      <c r="J22">
+        <v>2.64932201064622</v>
+      </c>
+      <c r="K22">
+        <v>17.07501890735578</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>-0.4631851059794809</v>
+      </c>
+      <c r="C23">
+        <v>-0.05321115305769508</v>
+      </c>
+      <c r="D23">
+        <v>0.5121931256626302</v>
+      </c>
+      <c r="E23">
+        <v>0.546788846942305</v>
+      </c>
+      <c r="F23">
+        <v>1.520803199066588</v>
+      </c>
+      <c r="G23">
+        <v>1.178119771656238</v>
+      </c>
+      <c r="H23">
+        <v>-0.02516852226714095</v>
+      </c>
+      <c r="I23">
+        <v>2.846788846942305</v>
+      </c>
+      <c r="J23">
+        <v>17.27248574365187</v>
+      </c>
+      <c r="K23">
+        <v>-6.722763669914475</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>-0.2976745252402782</v>
+      </c>
+      <c r="C24">
+        <v>0.2677297534800471</v>
+      </c>
+      <c r="D24">
+        <v>0.3023254747597219</v>
+      </c>
+      <c r="E24">
+        <v>1.276339826884005</v>
+      </c>
+      <c r="F24">
+        <v>0.9336563994736549</v>
+      </c>
+      <c r="G24">
+        <v>-0.269631894449724</v>
+      </c>
+      <c r="H24">
+        <v>2.602325474759722</v>
+      </c>
+      <c r="I24">
+        <v>17.02802237146928</v>
+      </c>
+      <c r="J24">
+        <v>-6.967227042097058</v>
+      </c>
+      <c r="K24">
+        <v>-1.115462636238469</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>0.4796261195465303</v>
+      </c>
+      <c r="C25">
+        <v>0.5142218408262051</v>
+      </c>
+      <c r="D25">
+        <v>1.488236192950488</v>
+      </c>
+      <c r="E25">
+        <v>1.145552765540138</v>
+      </c>
+      <c r="F25">
+        <v>-0.05773552838324081</v>
+      </c>
+      <c r="G25">
+        <v>2.814221840826205</v>
+      </c>
+      <c r="H25">
+        <v>17.23991873753577</v>
+      </c>
+      <c r="I25">
+        <v>-6.755330676030574</v>
+      </c>
+      <c r="J25">
+        <v>-0.903566270171986</v>
+      </c>
+      <c r="K25">
+        <v>2.200345846427176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>0.463343204956725</v>
+      </c>
+      <c r="C26">
+        <v>1.437357557081008</v>
+      </c>
+      <c r="D26">
+        <v>1.094674129670658</v>
+      </c>
+      <c r="E26">
+        <v>-0.108614164252721</v>
+      </c>
+      <c r="F26">
+        <v>2.763343204956725</v>
+      </c>
+      <c r="G26">
+        <v>17.18904010166629</v>
+      </c>
+      <c r="H26">
+        <v>-6.806209311900055</v>
+      </c>
+      <c r="I26">
+        <v>-0.9544449060414661</v>
+      </c>
+      <c r="J26">
+        <v>2.149467210557695</v>
+      </c>
+      <c r="K26">
+        <v>-1.713601200364699</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>1.484862465422211</v>
+      </c>
+      <c r="C27">
+        <v>1.142179038011861</v>
+      </c>
+      <c r="D27">
+        <v>-0.06110925591151783</v>
+      </c>
+      <c r="E27">
+        <v>2.810848113297928</v>
+      </c>
+      <c r="F27">
+        <v>17.23654501000749</v>
+      </c>
+      <c r="G27">
+        <v>-6.758704403558852</v>
+      </c>
+      <c r="H27">
+        <v>-0.906939997700263</v>
+      </c>
+      <c r="I27">
+        <v>2.196972118898898</v>
+      </c>
+      <c r="J27">
+        <v>-1.666096292023496</v>
+      </c>
+      <c r="K27">
+        <v>0.7743723464203074</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>1.151676073713056</v>
+      </c>
+      <c r="C28">
+        <v>-0.05161222021032286</v>
+      </c>
+      <c r="D28">
+        <v>2.820345148999123</v>
+      </c>
+      <c r="E28">
+        <v>17.24604204570868</v>
+      </c>
+      <c r="F28">
+        <v>-6.749207367857657</v>
+      </c>
+      <c r="G28">
+        <v>-0.897442961999068</v>
+      </c>
+      <c r="H28">
+        <v>2.206469154600094</v>
+      </c>
+      <c r="I28">
+        <v>-1.656599256322301</v>
+      </c>
+      <c r="J28">
+        <v>0.7838693821215024</v>
+      </c>
+      <c r="K28">
+        <v>0.5661097394539716</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>-0.3207882201106189</v>
+      </c>
+      <c r="C29">
+        <v>2.551169149098827</v>
+      </c>
+      <c r="D29">
+        <v>16.97686604580839</v>
+      </c>
+      <c r="E29">
+        <v>-7.018383367757953</v>
+      </c>
+      <c r="F29">
+        <v>-1.166618961899364</v>
+      </c>
+      <c r="G29">
+        <v>1.937293154699798</v>
+      </c>
+      <c r="H29">
+        <v>-1.925775256222597</v>
+      </c>
+      <c r="I29">
+        <v>0.5146933822212063</v>
+      </c>
+      <c r="J29">
+        <v>0.2969337395536755</v>
+      </c>
+      <c r="K29">
+        <v>2.309809298433815</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>2.503075169149854</v>
+      </c>
+      <c r="C30">
+        <v>16.92877206585942</v>
+      </c>
+      <c r="D30">
+        <v>-7.066477347706926</v>
+      </c>
+      <c r="E30">
+        <v>-1.214712941848337</v>
+      </c>
+      <c r="F30">
+        <v>1.889199174750824</v>
+      </c>
+      <c r="G30">
+        <v>-1.97386923617157</v>
+      </c>
+      <c r="H30">
+        <v>0.4665994022722331</v>
+      </c>
+      <c r="I30">
+        <v>0.2488397596047023</v>
+      </c>
+      <c r="J30">
+        <v>2.261715318484842</v>
+      </c>
+      <c r="K30">
+        <v>-0.8642717201763803</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>16.72961485970762</v>
+      </c>
+      <c r="C31">
+        <v>-7.265634553858717</v>
+      </c>
+      <c r="D31">
+        <v>-1.413870148000129</v>
+      </c>
+      <c r="E31">
+        <v>1.690041968599033</v>
+      </c>
+      <c r="F31">
+        <v>-2.173026442323362</v>
+      </c>
+      <c r="G31">
+        <v>0.2674421961204416</v>
+      </c>
+      <c r="H31">
+        <v>0.04968255345291084</v>
+      </c>
+      <c r="I31">
+        <v>2.062558112333051</v>
+      </c>
+      <c r="J31">
+        <v>-1.063428926328172</v>
+      </c>
+      <c r="K31">
+        <v>0.5065360089325992</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>-7.553511975463299</v>
+      </c>
+      <c r="C32">
+        <v>-1.70174756960471</v>
+      </c>
+      <c r="D32">
+        <v>1.402164546994452</v>
+      </c>
+      <c r="E32">
+        <v>-2.460903863927943</v>
+      </c>
+      <c r="F32">
+        <v>-0.02043522548413951</v>
+      </c>
+      <c r="G32">
+        <v>-0.2381948681516703</v>
+      </c>
+      <c r="H32">
+        <v>1.774680690728469</v>
+      </c>
+      <c r="I32">
+        <v>-1.351306347932753</v>
+      </c>
+      <c r="J32">
+        <v>0.2186585873280181</v>
+      </c>
+      <c r="K32">
+        <v>2.432561772259231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>-2.683622277056201</v>
+      </c>
+      <c r="C33">
+        <v>0.4202898395429608</v>
+      </c>
+      <c r="D33">
+        <v>-3.442778571379434</v>
+      </c>
+      <c r="E33">
+        <v>-1.00230993293563</v>
+      </c>
+      <c r="F33">
+        <v>-1.220069575603161</v>
+      </c>
+      <c r="G33">
+        <v>0.7928059832769783</v>
+      </c>
+      <c r="H33">
+        <v>-2.333181055384244</v>
+      </c>
+      <c r="I33">
+        <v>-0.7632161201234728</v>
+      </c>
+      <c r="J33">
+        <v>1.450687064807739</v>
+      </c>
+      <c r="K33">
+        <v>0.8640893753949124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>0.5952771184129979</v>
+      </c>
+      <c r="C34">
+        <v>-3.267791292509397</v>
+      </c>
+      <c r="D34">
+        <v>-0.8273226540655934</v>
+      </c>
+      <c r="E34">
+        <v>-1.045082296733124</v>
+      </c>
+      <c r="F34">
+        <v>0.9677932621470153</v>
+      </c>
+      <c r="G34">
+        <v>-2.158193776514207</v>
+      </c>
+      <c r="H34">
+        <v>-0.5882288412534358</v>
+      </c>
+      <c r="I34">
+        <v>1.625674343677777</v>
+      </c>
+      <c r="J34">
+        <v>1.039076654264949</v>
+      </c>
+      <c r="K34">
+        <v>-0.5710296310400018</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>-3.339519240577924</v>
+      </c>
+      <c r="C35">
+        <v>-0.8990506021341214</v>
+      </c>
+      <c r="D35">
+        <v>-1.116810244801652</v>
+      </c>
+      <c r="E35">
+        <v>0.8960653140784873</v>
+      </c>
+      <c r="F35">
+        <v>-2.229921724582735</v>
+      </c>
+      <c r="G35">
+        <v>-0.6599567893219638</v>
+      </c>
+      <c r="H35">
+        <v>1.553946395609249</v>
+      </c>
+      <c r="I35">
+        <v>0.9673487061964214</v>
+      </c>
+      <c r="J35">
+        <v>-0.6427575791085297</v>
+      </c>
+      <c r="K35">
+        <v>-1.131820232343753</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>-0.2290595337512519</v>
+      </c>
+      <c r="C36">
+        <v>-0.4468191764187827</v>
+      </c>
+      <c r="D36">
+        <v>1.566056382461357</v>
+      </c>
+      <c r="E36">
+        <v>-1.559930656199865</v>
+      </c>
+      <c r="F36">
+        <v>0.0100342790609057</v>
+      </c>
+      <c r="G36">
+        <v>2.223937463992118</v>
+      </c>
+      <c r="H36">
+        <v>1.637339774579291</v>
+      </c>
+      <c r="I36">
+        <v>0.02723348927433972</v>
+      </c>
+      <c r="J36">
+        <v>-0.4618291639608832</v>
+      </c>
+      <c r="K36">
+        <v>1.539847753977329</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>-0.5808710770368961</v>
+      </c>
+      <c r="C37">
+        <v>1.432004481843243</v>
+      </c>
+      <c r="D37">
+        <v>-1.693982556817979</v>
+      </c>
+      <c r="E37">
+        <v>-0.1240176215572077</v>
+      </c>
+      <c r="F37">
+        <v>2.089885563374005</v>
+      </c>
+      <c r="G37">
+        <v>1.503287873961177</v>
+      </c>
+      <c r="H37">
+        <v>-0.1068184113437737</v>
+      </c>
+      <c r="I37">
+        <v>-0.5958810645789967</v>
+      </c>
+      <c r="J37">
+        <v>1.405795853359215</v>
+      </c>
+      <c r="K37">
+        <v>0.1650521052130429</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>1.430881922035195</v>
+      </c>
+      <c r="C38">
+        <v>-1.695105116626027</v>
+      </c>
+      <c r="D38">
+        <v>-0.125140181365256</v>
+      </c>
+      <c r="E38">
+        <v>2.088763003565956</v>
+      </c>
+      <c r="F38">
+        <v>1.502165314153129</v>
+      </c>
+      <c r="G38">
+        <v>-0.107940971151822</v>
+      </c>
+      <c r="H38">
+        <v>-0.5970036243870449</v>
+      </c>
+      <c r="I38">
+        <v>1.404673293551167</v>
+      </c>
+      <c r="J38">
+        <v>0.1639295454049947</v>
+      </c>
+      <c r="K38">
+        <v>-0.7759321884976511</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
         <v>-1.287171013491868</v>
       </c>
-      <c r="C2">
+      <c r="C39">
         <v>0.2827939217689028</v>
       </c>
-      <c r="D2">
+      <c r="D39">
         <v>2.496697106700115</v>
       </c>
-      <c r="E2">
+      <c r="E39">
         <v>1.910099417287288</v>
       </c>
-      <c r="F2">
+      <c r="F39">
         <v>0.2999931319823368</v>
       </c>
-      <c r="G2">
+      <c r="G39">
         <v>-0.1890695212528862</v>
       </c>
-      <c r="H2">
+      <c r="H39">
         <v>1.812607396685326</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
+      <c r="I39">
+        <v>0.5718636485391535</v>
+      </c>
+      <c r="J39">
+        <v>-0.3679980853634924</v>
+      </c>
+      <c r="K39">
+        <v>0.7405942347776211</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
         <v>0.5817192572292627</v>
       </c>
-      <c r="C3">
+      <c r="C40">
         <v>2.795622442160475</v>
       </c>
-      <c r="D3">
+      <c r="D40">
         <v>2.209024752747648</v>
       </c>
-      <c r="E3">
+      <c r="E40">
         <v>0.5989184674426966</v>
       </c>
-      <c r="F3">
+      <c r="F40">
         <v>0.1098558142074737</v>
       </c>
-      <c r="G3">
+      <c r="G40">
         <v>2.111532732145686</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
+      <c r="H40">
+        <v>0.8707889839995133</v>
+      </c>
+      <c r="I40">
+        <v>-0.0690727499031325</v>
+      </c>
+      <c r="J40">
+        <v>1.039519570237981</v>
+      </c>
+      <c r="K40">
+        <v>0.4697641820858209</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
         <v>2.860352663279089</v>
       </c>
-      <c r="C4">
+      <c r="C41">
         <v>2.273754973866262</v>
       </c>
-      <c r="D4">
+      <c r="D41">
         <v>0.6636486885613111</v>
       </c>
-      <c r="E4">
+      <c r="E41">
         <v>0.1745860353260881</v>
       </c>
-      <c r="F4">
+      <c r="F41">
         <v>2.1762629532643</v>
       </c>
-      <c r="G4">
+      <c r="G41">
         <v>0.9355192051181277</v>
       </c>
-      <c r="H4">
+      <c r="H41">
         <v>-0.004342528784518129</v>
       </c>
-      <c r="I4">
+      <c r="I41">
         <v>1.104249791356595</v>
       </c>
-      <c r="J4">
+      <c r="J41">
         <v>0.5344944032044353</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
+      <c r="K41">
+        <v>0.8756319328965972</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
         <v>3.993739063922089</v>
       </c>
-      <c r="C5">
+      <c r="C42">
         <v>2.383632778617138</v>
       </c>
-      <c r="D5">
+      <c r="D42">
         <v>1.894570125381915</v>
       </c>
-      <c r="E5">
+      <c r="E42">
         <v>3.896247043320127</v>
       </c>
-      <c r="F5">
+      <c r="F42">
         <v>2.655503295173955</v>
       </c>
-      <c r="G5">
+      <c r="G42">
         <v>1.715641561271309</v>
       </c>
-      <c r="H5">
+      <c r="H42">
         <v>2.824233881412422</v>
       </c>
-      <c r="I5">
+      <c r="I42">
         <v>2.254478493260262</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
+      <c r="J42">
+        <v>2.595616022952424</v>
+      </c>
+      <c r="K42">
+        <v>2.516459119681553</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
         <v>1.327939736723062</v>
       </c>
-      <c r="C6">
+      <c r="C43">
         <v>0.838877083487839</v>
       </c>
-      <c r="D6">
+      <c r="D43">
         <v>2.840554001426051</v>
       </c>
-      <c r="E6">
+      <c r="E43">
         <v>1.599810253279879</v>
       </c>
-      <c r="F6">
+      <c r="F43">
         <v>0.6599485193772328</v>
       </c>
-      <c r="G6">
+      <c r="G43">
         <v>1.768540839518346</v>
       </c>
-      <c r="H6">
+      <c r="H43">
         <v>1.198785451366186</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
+      <c r="I43">
+        <v>1.539922981058348</v>
+      </c>
+      <c r="J43">
+        <v>1.460766077787477</v>
+      </c>
+      <c r="K43">
+        <v>1.261936744187432</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
         <v>0.596462224740588</v>
       </c>
-      <c r="C7">
+      <c r="C44">
         <v>2.5981391426788</v>
       </c>
-      <c r="D7">
+      <c r="D44">
         <v>1.357395394532628</v>
       </c>
-      <c r="E7">
+      <c r="E44">
         <v>0.4175336606299818</v>
       </c>
-      <c r="F7">
+      <c r="F44">
         <v>1.526125980771095</v>
       </c>
-      <c r="G7">
+      <c r="G44">
         <v>0.9563705926189352</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
+      <c r="H44">
+        <v>1.297508122311097</v>
+      </c>
+      <c r="I44">
+        <v>1.218351219040226</v>
+      </c>
+      <c r="J44">
+        <v>1.019521885440181</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
         <v>2.147895666590351</v>
       </c>
-      <c r="C8">
+      <c r="C45">
         <v>0.9071519184441783</v>
       </c>
-      <c r="D8">
+      <c r="D45">
         <v>-0.03270981545846752</v>
       </c>
-      <c r="E8">
+      <c r="E45">
         <v>1.075882504682646</v>
       </c>
-      <c r="F8">
+      <c r="F45">
         <v>0.5061271165304859</v>
       </c>
-      <c r="G8">
+      <c r="G45">
         <v>0.8472646462226479</v>
       </c>
-      <c r="H8">
+      <c r="H45">
         <v>0.7681077429517771</v>
       </c>
-      <c r="I8">
+      <c r="I45">
         <v>0.5692784093517318</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
+    <row r="46" spans="1:11">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
         <v>0.2723519233738259</v>
       </c>
-      <c r="C9">
+      <c r="C46">
         <v>-0.66750981052882</v>
       </c>
-      <c r="D9">
+      <c r="D46">
         <v>0.4410825096122935</v>
       </c>
-      <c r="E9">
+      <c r="E46">
         <v>-0.1286728785398665</v>
       </c>
-      <c r="F9">
+      <c r="F46">
         <v>0.2124646511522954</v>
       </c>
-      <c r="G9">
+      <c r="G46">
         <v>0.1333077478814246</v>
       </c>
-      <c r="H9">
+      <c r="H46">
         <v>-0.0655215857186206</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
+    <row r="47" spans="1:11">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
         <v>-0.6913225886447478</v>
       </c>
-      <c r="C10">
+      <c r="C47">
         <v>0.4172697314963657</v>
       </c>
-      <c r="D10">
+      <c r="D47">
         <v>-0.1524856566557943</v>
       </c>
-      <c r="E10">
+      <c r="E47">
         <v>0.1886518730363676</v>
       </c>
-      <c r="F10">
+      <c r="F47">
         <v>0.1094949697654968</v>
       </c>
-      <c r="G10">
+      <c r="G47">
         <v>-0.0893343638345484</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11">
+    <row r="48" spans="1:11">
+      <c r="A48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
         <v>0.2489548475442122</v>
       </c>
-      <c r="C11">
+      <c r="C48">
         <v>-0.3208005406079479</v>
       </c>
-      <c r="D11">
+      <c r="D48">
         <v>0.02033698908421404</v>
       </c>
-      <c r="E11">
+      <c r="E48">
         <v>-0.05881991418665673</v>
       </c>
-      <c r="F11">
+      <c r="F48">
         <v>-0.257649247786702</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
         <v>-0.4452547693108855</v>
       </c>
-      <c r="C12">
+      <c r="C49">
         <v>-0.1041172396187236</v>
       </c>
-      <c r="D12">
+      <c r="D49">
         <v>-0.1832741428895944</v>
       </c>
-      <c r="E12">
+      <c r="E49">
         <v>-0.3821034764896396</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13">
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
         <v>-0.1205552980991258</v>
       </c>
-      <c r="C13">
+      <c r="C50">
         <v>-0.1997122013699966</v>
       </c>
-      <c r="D13">
+      <c r="D50">
         <v>-0.3985415349700418</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14">
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
         <v>-0.379135158058041</v>
       </c>
-      <c r="C14">
+      <c r="C51">
         <v>-0.5779644916580863</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15">
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
         <v>-0.3996235179026385</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/IMPORT/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/IMPORT/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -600,34 +600,34 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <v>2.206477573536926</v>
+      </c>
+      <c r="C2">
         <v>-1.056018808708903</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>3.824402354823998</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>-1.383940393044757</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>6.539789695468809</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>7.788423147707714</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>7.84258229064643</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>-2.541935847452085</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>4.048513823737675</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>-3.65782291729413</v>
-      </c>
-      <c r="K2">
-        <v>-5.339900910512984</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -635,34 +635,34 @@
         <v>11</v>
       </c>
       <c r="B3">
+        <v>3.247901652231543</v>
+      </c>
+      <c r="C3">
         <v>-1.960441095637212</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>5.963288992876353</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>7.211922445115259</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>7.266081588053974</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-3.118436550044541</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>3.47201312114522</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-4.234323619886585</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-5.91640161310544</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.07812335641517998</v>
-      </c>
-      <c r="K3">
-        <v>1.058780575963975</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -670,34 +670,34 @@
         <v>12</v>
       </c>
       <c r="B4">
+        <v>5.596362872918757</v>
+      </c>
+      <c r="C4">
         <v>6.844996325157663</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>6.899155468096378</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-3.485362670002137</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>3.105087001187624</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-4.601249739844182</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-6.283327733063036</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-0.4450494763727761</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.6918544560063788</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.02530780876220384</v>
-      </c>
-      <c r="K4">
-        <v>-1.403161654151166</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -705,34 +705,34 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>5.518486056003089</v>
+      </c>
+      <c r="C5">
         <v>-4.866032082095426</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1.724417589094334</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-5.981919151937471</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-7.663997145156325</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-1.825718888466066</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>-0.6888149560869109</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-1.355361603331086</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-2.783831066244456</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-2.535453976003647</v>
-      </c>
-      <c r="K5">
-        <v>0.8960175827520275</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -740,34 +740,34 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>1.31314205362174</v>
+      </c>
+      <c r="C6">
         <v>-6.393194687410066</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-8.07527268062892</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-2.236994423938661</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>-1.100090491559506</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-1.766637138803681</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-3.195106601717051</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-2.946729511476242</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.4847420472794327</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>-0.3256240869557202</v>
-      </c>
-      <c r="K6">
-        <v>-2.542321688793187</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -775,34 +775,34 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>-7.838499494176394</v>
+      </c>
+      <c r="C7">
         <v>-2.000221237486134</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-0.8633173051069789</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-1.529863952351154</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-2.958333415264524</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-2.709956325023715</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.7215152337319595</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-0.08885090050319348</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-2.30554850234066</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-1.11045427410554</v>
-      </c>
-      <c r="K7">
-        <v>1.246081975546043</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -810,34 +810,34 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>-0.2235153705333545</v>
+      </c>
+      <c r="C8">
         <v>-0.8900620177775295</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>-2.3185314806909</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>-2.070154390450091</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1.361317168305584</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.550951034070431</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-1.665746567767036</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>-0.4706523395319154</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1.885883910119667</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>2.67322279758254</v>
-      </c>
-      <c r="K8">
-        <v>-1.359856115119376</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -845,34 +845,34 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>-2.391248109959675</v>
+      </c>
+      <c r="C9">
         <v>-2.142871019718866</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>1.288600539036808</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.4782344048016555</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-1.738463197035811</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-0.543368968800691</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1.813167280850892</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>2.600506168313764</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>-1.432572744388152</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>-0.3112167028359337</v>
-      </c>
-      <c r="K9">
-        <v>-0.78482185336655</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -880,34 +880,34 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>2.646436391089193</v>
+      </c>
+      <c r="C10">
         <v>1.836070256854039</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-0.380627344983427</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.814466883251693</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>3.171003132903276</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>3.958342020366148</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-0.07473689233576786</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1.04661914921645</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.573013998685834</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-0.3501652793966519</v>
-      </c>
-      <c r="K10">
-        <v>0.739137407015374</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -915,34 +915,34 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>-0.3029103569738791</v>
+      </c>
+      <c r="C11">
         <v>0.8921838712612409</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>3.248720120912824</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>4.036059008375696</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.002980095673779992</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1.124336137225998</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.6507309866953819</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-0.272448291387104</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.8168543950249219</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>0.258268530866405</v>
-      </c>
-      <c r="K11">
-        <v>0.07856287755122393</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -950,34 +950,34 @@
         <v>20</v>
       </c>
       <c r="B12">
+        <v>2.875892175068365</v>
+      </c>
+      <c r="C12">
         <v>3.663231062531237</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-0.369847850170679</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.7515081913815391</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.2779030408509229</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-0.645276237231563</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.4440264491804629</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-0.114559414978054</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-0.2942650682932351</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>0.09918592472438781</v>
-      </c>
-      <c r="K12">
-        <v>1.076250235802796</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -985,34 +985,34 @@
         <v>21</v>
       </c>
       <c r="B13">
+        <v>-1.261488171601413</v>
+      </c>
+      <c r="C13">
         <v>-0.1401321300491949</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>-0.6137372805798111</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-1.536916558662297</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-0.4476138722502712</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-1.006199736408788</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-1.185905389723969</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>-0.7924543967063462</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.1846099143720617</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>-0.4731291047085751</v>
-      </c>
-      <c r="K13">
-        <v>0.1514065252846004</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1020,34 +1020,34 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>-0.7284341321599453</v>
+      </c>
+      <c r="C14">
         <v>-1.651613410242431</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-0.5623107238304054</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-1.120896587988922</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-1.300602241304103</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-0.9071512482864804</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0.06991306279192749</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>-0.5878259562887093</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.03670967370446621</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-0.8395235127057944</v>
-      </c>
-      <c r="K14">
-        <v>0.4601212449020281</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1055,34 +1055,34 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>-0.4921454800428274</v>
+      </c>
+      <c r="C15">
         <v>-1.050731344201344</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-1.230436997516525</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>-0.8369860044989025</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.1400783065795054</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>-0.5176607125011313</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0.1068749174920441</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-0.7693582689182165</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.530286488689606</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.4659284474827899</v>
-      </c>
-      <c r="K15">
-        <v>-1.862331545976608</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1090,34 +1090,34 @@
         <v>24</v>
       </c>
       <c r="B16">
+        <v>-1.12043540046469</v>
+      </c>
+      <c r="C16">
         <v>-0.7269844074470668</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.2500799036313411</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>-0.4076591154492957</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.2168765145438798</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>-0.6593566718663808</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.6402880857414417</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0.5759300445346256</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>-1.752329948924772</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>0.3387401927482998</v>
-      </c>
-      <c r="K16">
-        <v>-1.659687572277652</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1125,34 +1125,34 @@
         <v>25</v>
       </c>
       <c r="B17">
+        <v>0.5295899306234797</v>
+      </c>
+      <c r="C17">
         <v>-0.128149088457157</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.4963865415360185</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>-0.3798466448742421</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0.9197981127335804</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.8554400715267643</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>-1.472819921932633</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.6182502197404385</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>-1.380177545285513</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>0.1245328521850193</v>
-      </c>
-      <c r="K17">
-        <v>-0.9727190283491831</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1160,34 +1160,34 @@
         <v>26</v>
       </c>
       <c r="B18">
+        <v>0.6558057096546586</v>
+      </c>
+      <c r="C18">
         <v>-0.220427476755602</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>1.07921728085222</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>1.014859239645404</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>-1.313400753813993</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.7776693878590786</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>-1.220758377166873</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>0.2839520203036594</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>-0.813299860230543</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>2.271070547289413</v>
-      </c>
-      <c r="K18">
-        <v>-0.5339840274512249</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1195,34 +1195,34 @@
         <v>27</v>
       </c>
       <c r="B19">
+        <v>0.9553129180572564</v>
+      </c>
+      <c r="C19">
         <v>0.8909548768504403</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>-1.437305116608957</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.6537650250641145</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>-1.344662739961837</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.1600476575086953</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>-0.9372042230255071</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>2.147166184494449</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>-0.6578883902461889</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>-0.2479144373244031</v>
-      </c>
-      <c r="K19">
-        <v>0.3174898413959222</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1230,34 +1230,34 @@
         <v>28</v>
       </c>
       <c r="B20">
+        <v>-1.613141014800104</v>
+      </c>
+      <c r="C20">
         <v>0.4779291268729679</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-1.520498638152983</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>-0.01578824068245122</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>-1.113040121216654</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>1.971330286303302</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>-0.8337242884373355</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>-0.4237503355155496</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.1416539432047756</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>0.1762496644844505</v>
-      </c>
-      <c r="K20">
-        <v>1.150264016608733</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1265,34 +1265,34 @@
         <v>29</v>
       </c>
       <c r="B21">
+        <v>-1.308967986458785</v>
+      </c>
+      <c r="C21">
         <v>0.1957424110117474</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>-0.901509469522455</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>2.182860937997501</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>-0.6221936367431369</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>-0.212219683821351</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.3531845948989742</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.3877803161786491</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>1.361794668302932</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>1.019111240892582</v>
-      </c>
-      <c r="K21">
-        <v>-0.1841770530307969</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1300,34 +1300,34 @@
         <v>30</v>
       </c>
       <c r="B22">
+        <v>-0.939967775054884</v>
+      </c>
+      <c r="C22">
         <v>2.144402632465072</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>-0.6606519422755659</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>-0.2506779893537801</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.3147262893665452</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.34932201064622</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>1.323336362770503</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.980652935360153</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>-0.2226353585632259</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>2.64932201064622</v>
-      </c>
-      <c r="K22">
-        <v>17.07501890735578</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1335,34 +1335,34 @@
         <v>31</v>
       </c>
       <c r="B23">
+        <v>2.341869468761157</v>
+      </c>
+      <c r="C23">
         <v>-0.4631851059794809</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>-0.05321115305769508</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.5121931256626302</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0.546788846942305</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>1.520803199066588</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>1.178119771656238</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>-0.02516852226714095</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>2.846788846942305</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>17.27248574365187</v>
-      </c>
-      <c r="K23">
-        <v>-6.722763669914475</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1370,34 +1370,34 @@
         <v>32</v>
       </c>
       <c r="B24">
+        <v>-0.707648478162064</v>
+      </c>
+      <c r="C24">
         <v>-0.2976745252402782</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.2677297534800471</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.3023254747597219</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>1.276339826884005</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.9336563994736549</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>-0.269631894449724</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>2.602325474759722</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>17.02802237146928</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>-6.967227042097058</v>
-      </c>
-      <c r="K24">
-        <v>-1.115462636238469</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1405,34 +1405,34 @@
         <v>33</v>
       </c>
       <c r="B25">
+        <v>-0.08577815917379494</v>
+      </c>
+      <c r="C25">
         <v>0.4796261195465303</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>0.5142218408262051</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>1.488236192950488</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>1.145552765540138</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>-0.05773552838324081</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>2.814221840826205</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>17.23991873753577</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>-6.755330676030574</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>-0.903566270171986</v>
-      </c>
-      <c r="K25">
-        <v>2.200345846427176</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1440,34 +1440,34 @@
         <v>34</v>
       </c>
       <c r="B26">
+        <v>0.4287474836770502</v>
+      </c>
+      <c r="C26">
         <v>0.463343204956725</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>1.437357557081008</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>1.094674129670658</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>-0.108614164252721</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>2.763343204956725</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>17.18904010166629</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>-6.806209311900055</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>-0.9544449060414661</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>2.149467210557695</v>
-      </c>
-      <c r="K26">
-        <v>-1.713601200364699</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1475,34 +1475,34 @@
         <v>35</v>
       </c>
       <c r="B27">
+        <v>0.5108481132979281</v>
+      </c>
+      <c r="C27">
         <v>1.484862465422211</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>1.142179038011861</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>-0.06110925591151783</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>2.810848113297928</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>17.23654501000749</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>-6.758704403558852</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>-0.906939997700263</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>2.196972118898898</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>-1.666096292023496</v>
-      </c>
-      <c r="K27">
-        <v>0.7743723464203074</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1510,34 +1510,34 @@
         <v>36</v>
       </c>
       <c r="B28">
+        <v>1.494359501123406</v>
+      </c>
+      <c r="C28">
         <v>1.151676073713056</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>-0.05161222021032286</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>2.820345148999123</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>17.24604204570868</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>-6.749207367857657</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>-0.897442961999068</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>2.206469154600094</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>-1.656599256322301</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>0.7838693821215024</v>
-      </c>
-      <c r="K28">
-        <v>0.5661097394539716</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1545,34 +1545,34 @@
         <v>37</v>
       </c>
       <c r="B29">
+        <v>0.88250007381276</v>
+      </c>
+      <c r="C29">
         <v>-0.3207882201106189</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>2.551169149098827</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>16.97686604580839</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>-7.018383367757953</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>-1.166618961899364</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>1.937293154699798</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>-1.925775256222597</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>0.5146933822212063</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>0.2969337395536755</v>
-      </c>
-      <c r="K29">
-        <v>2.309809298433815</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1580,34 +1580,34 @@
         <v>38</v>
       </c>
       <c r="B30">
+        <v>-0.3688822000595922</v>
+      </c>
+      <c r="C30">
         <v>2.503075169149854</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>16.92877206585942</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>-7.066477347706926</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>-1.214712941848337</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>1.889199174750824</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>-1.97386923617157</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>0.4665994022722331</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>0.2488397596047023</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>2.261715318484842</v>
-      </c>
-      <c r="K30">
-        <v>-0.8642717201763803</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1615,34 +1615,34 @@
         <v>39</v>
       </c>
       <c r="B31">
+        <v>2.303917962998062</v>
+      </c>
+      <c r="C31">
         <v>16.72961485970762</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>-7.265634553858717</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>-1.413870148000129</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>1.690041968599033</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>-2.173026442323362</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>0.2674421961204416</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>0.04968255345291084</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>2.062558112333051</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>-1.063428926328172</v>
-      </c>
-      <c r="K31">
-        <v>0.5065360089325992</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1650,34 +1650,34 @@
         <v>40</v>
       </c>
       <c r="B32">
+        <v>16.44173743810304</v>
+      </c>
+      <c r="C32">
         <v>-7.553511975463299</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>-1.70174756960471</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>1.402164546994452</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>-2.460903863927943</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>-0.02043522548413951</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>-0.2381948681516703</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>1.774680690728469</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>-1.351306347932753</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>0.2186585873280181</v>
-      </c>
-      <c r="K32">
-        <v>2.432561772259231</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1685,34 +1685,34 @@
         <v>41</v>
       </c>
       <c r="B33">
+        <v>-8.53538668291479</v>
+      </c>
+      <c r="C33">
         <v>-2.683622277056201</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>0.4202898395429608</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>-3.442778571379434</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>-1.00230993293563</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>-1.220069575603161</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>0.7928059832769783</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>-2.333181055384244</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>-0.7632161201234728</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>1.450687064807739</v>
-      </c>
-      <c r="K33">
-        <v>0.8640893753949124</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1720,34 +1720,34 @@
         <v>42</v>
       </c>
       <c r="B34">
+        <v>-2.508634998186164</v>
+      </c>
+      <c r="C34">
         <v>0.5952771184129979</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>-3.267791292509397</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>-0.8273226540655934</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>-1.045082296733124</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>0.9677932621470153</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>-2.158193776514207</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>-0.5882288412534358</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>1.625674343677777</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>1.039076654264949</v>
-      </c>
-      <c r="K34">
-        <v>-0.5710296310400018</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1755,34 +1755,31 @@
         <v>43</v>
       </c>
       <c r="B35">
+        <v>0.5235491703444699</v>
+      </c>
+      <c r="C35">
         <v>-3.339519240577924</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>-0.8990506021341214</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>-1.116810244801652</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>0.8960653140784873</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>-2.229921724582735</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>-0.6599567893219638</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>1.553946395609249</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>0.9673487061964214</v>
-      </c>
-      <c r="J35">
-        <v>-0.6427575791085297</v>
-      </c>
-      <c r="K35">
-        <v>-1.131820232343753</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1790,34 +1787,28 @@
         <v>44</v>
       </c>
       <c r="B36">
+        <v>-2.669528172195055</v>
+      </c>
+      <c r="C36">
         <v>-0.2290595337512519</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>-0.4468191764187827</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>1.566056382461357</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>-1.559930656199865</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>0.0100342790609057</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>2.223937463992118</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>1.637339774579291</v>
-      </c>
-      <c r="I36">
-        <v>0.02723348927433972</v>
-      </c>
-      <c r="J36">
-        <v>-0.4618291639608832</v>
-      </c>
-      <c r="K36">
-        <v>1.539847753977329</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1825,34 +1816,25 @@
         <v>45</v>
       </c>
       <c r="B37">
+        <v>-0.3631114343693653</v>
+      </c>
+      <c r="C37">
         <v>-0.5808710770368961</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>1.432004481843243</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>-1.693982556817979</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>-0.1240176215572077</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>2.089885563374005</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>1.503287873961177</v>
-      </c>
-      <c r="H37">
-        <v>-0.1068184113437737</v>
-      </c>
-      <c r="I37">
-        <v>-0.5958810645789967</v>
-      </c>
-      <c r="J37">
-        <v>1.405795853359215</v>
-      </c>
-      <c r="K37">
-        <v>0.1650521052130429</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1860,34 +1842,22 @@
         <v>46</v>
       </c>
       <c r="B38">
+        <v>-0.5819936368449443</v>
+      </c>
+      <c r="C38">
         <v>1.430881922035195</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>-1.695105116626027</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>-0.125140181365256</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>2.088763003565956</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>1.502165314153129</v>
-      </c>
-      <c r="G38">
-        <v>-0.107940971151822</v>
-      </c>
-      <c r="H38">
-        <v>-0.5970036243870449</v>
-      </c>
-      <c r="I38">
-        <v>1.404673293551167</v>
-      </c>
-      <c r="J38">
-        <v>0.1639295454049947</v>
-      </c>
-      <c r="K38">
-        <v>-0.7759321884976511</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1895,34 +1865,19 @@
         <v>47</v>
       </c>
       <c r="B39">
+        <v>1.838816025169354</v>
+      </c>
+      <c r="C39">
         <v>-1.287171013491868</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>0.2827939217689028</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>2.496697106700115</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>1.910099417287288</v>
-      </c>
-      <c r="F39">
-        <v>0.2999931319823368</v>
-      </c>
-      <c r="G39">
-        <v>-0.1890695212528862</v>
-      </c>
-      <c r="H39">
-        <v>1.812607396685326</v>
-      </c>
-      <c r="I39">
-        <v>0.5718636485391535</v>
-      </c>
-      <c r="J39">
-        <v>-0.3679980853634924</v>
-      </c>
-      <c r="K39">
-        <v>0.7405942347776211</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1930,34 +1885,16 @@
         <v>48</v>
       </c>
       <c r="B40">
+        <v>-0.9882456780315083</v>
+      </c>
+      <c r="C40">
         <v>0.5817192572292627</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>2.795622442160475</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>2.209024752747648</v>
-      </c>
-      <c r="E40">
-        <v>0.5989184674426966</v>
-      </c>
-      <c r="F40">
-        <v>0.1098558142074737</v>
-      </c>
-      <c r="G40">
-        <v>2.111532732145686</v>
-      </c>
-      <c r="H40">
-        <v>0.8707889839995133</v>
-      </c>
-      <c r="I40">
-        <v>-0.0690727499031325</v>
-      </c>
-      <c r="J40">
-        <v>1.039519570237981</v>
-      </c>
-      <c r="K40">
-        <v>0.4697641820858209</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1965,34 +1902,13 @@
         <v>49</v>
       </c>
       <c r="B41">
+        <v>0.646449478347877</v>
+      </c>
+      <c r="C41">
         <v>2.860352663279089</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>2.273754973866262</v>
-      </c>
-      <c r="D41">
-        <v>0.6636486885613111</v>
-      </c>
-      <c r="E41">
-        <v>0.1745860353260881</v>
-      </c>
-      <c r="F41">
-        <v>2.1762629532643</v>
-      </c>
-      <c r="G41">
-        <v>0.9355192051181277</v>
-      </c>
-      <c r="H41">
-        <v>-0.004342528784518129</v>
-      </c>
-      <c r="I41">
-        <v>1.104249791356595</v>
-      </c>
-      <c r="J41">
-        <v>0.5344944032044353</v>
-      </c>
-      <c r="K41">
-        <v>0.8756319328965972</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2000,34 +1916,10 @@
         <v>50</v>
       </c>
       <c r="B42">
+        <v>4.580336753334916</v>
+      </c>
+      <c r="C42">
         <v>3.993739063922089</v>
-      </c>
-      <c r="C42">
-        <v>2.383632778617138</v>
-      </c>
-      <c r="D42">
-        <v>1.894570125381915</v>
-      </c>
-      <c r="E42">
-        <v>3.896247043320127</v>
-      </c>
-      <c r="F42">
-        <v>2.655503295173955</v>
-      </c>
-      <c r="G42">
-        <v>1.715641561271309</v>
-      </c>
-      <c r="H42">
-        <v>2.824233881412422</v>
-      </c>
-      <c r="I42">
-        <v>2.254478493260262</v>
-      </c>
-      <c r="J42">
-        <v>2.595616022952424</v>
-      </c>
-      <c r="K42">
-        <v>2.516459119681553</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2035,217 +1927,55 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>1.327939736723062</v>
-      </c>
-      <c r="C43">
-        <v>0.838877083487839</v>
-      </c>
-      <c r="D43">
-        <v>2.840554001426051</v>
-      </c>
-      <c r="E43">
-        <v>1.599810253279879</v>
-      </c>
-      <c r="F43">
-        <v>0.6599485193772328</v>
-      </c>
-      <c r="G43">
-        <v>1.768540839518346</v>
-      </c>
-      <c r="H43">
-        <v>1.198785451366186</v>
-      </c>
-      <c r="I43">
-        <v>1.539922981058348</v>
-      </c>
-      <c r="J43">
-        <v>1.460766077787477</v>
-      </c>
-      <c r="K43">
-        <v>1.261936744187432</v>
+        <v>2.938046022028013</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B44">
-        <v>0.596462224740588</v>
-      </c>
-      <c r="C44">
-        <v>2.5981391426788</v>
-      </c>
-      <c r="D44">
-        <v>1.357395394532628</v>
-      </c>
-      <c r="E44">
-        <v>0.4175336606299818</v>
-      </c>
-      <c r="F44">
-        <v>1.526125980771095</v>
-      </c>
-      <c r="G44">
-        <v>0.9563705926189352</v>
-      </c>
-      <c r="H44">
-        <v>1.297508122311097</v>
-      </c>
-      <c r="I44">
-        <v>1.218351219040226</v>
-      </c>
-      <c r="J44">
-        <v>1.019521885440181</v>
-      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B45">
-        <v>2.147895666590351</v>
-      </c>
-      <c r="C45">
-        <v>0.9071519184441783</v>
-      </c>
-      <c r="D45">
-        <v>-0.03270981545846752</v>
-      </c>
-      <c r="E45">
-        <v>1.075882504682646</v>
-      </c>
-      <c r="F45">
-        <v>0.5061271165304859</v>
-      </c>
-      <c r="G45">
-        <v>0.8472646462226479</v>
-      </c>
-      <c r="H45">
-        <v>0.7681077429517771</v>
-      </c>
-      <c r="I45">
-        <v>0.5692784093517318</v>
-      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B46">
-        <v>0.2723519233738259</v>
-      </c>
-      <c r="C46">
-        <v>-0.66750981052882</v>
-      </c>
-      <c r="D46">
-        <v>0.4410825096122935</v>
-      </c>
-      <c r="E46">
-        <v>-0.1286728785398665</v>
-      </c>
-      <c r="F46">
-        <v>0.2124646511522954</v>
-      </c>
-      <c r="G46">
-        <v>0.1333077478814246</v>
-      </c>
-      <c r="H46">
-        <v>-0.0655215857186206</v>
-      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B47">
-        <v>-0.6913225886447478</v>
-      </c>
-      <c r="C47">
-        <v>0.4172697314963657</v>
-      </c>
-      <c r="D47">
-        <v>-0.1524856566557943</v>
-      </c>
-      <c r="E47">
-        <v>0.1886518730363676</v>
-      </c>
-      <c r="F47">
-        <v>0.1094949697654968</v>
-      </c>
-      <c r="G47">
-        <v>-0.0893343638345484</v>
-      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B48">
-        <v>0.2489548475442122</v>
-      </c>
-      <c r="C48">
-        <v>-0.3208005406079479</v>
-      </c>
-      <c r="D48">
-        <v>0.02033698908421404</v>
-      </c>
-      <c r="E48">
-        <v>-0.05881991418665673</v>
-      </c>
-      <c r="F48">
-        <v>-0.257649247786702</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+    </row>
+    <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B49">
-        <v>-0.4452547693108855</v>
-      </c>
-      <c r="C49">
-        <v>-0.1041172396187236</v>
-      </c>
-      <c r="D49">
-        <v>-0.1832741428895944</v>
-      </c>
-      <c r="E49">
-        <v>-0.3821034764896396</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B50">
-        <v>-0.1205552980991258</v>
-      </c>
-      <c r="C50">
-        <v>-0.1997122013699966</v>
-      </c>
-      <c r="D50">
-        <v>-0.3985415349700418</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+    </row>
+    <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B51">
-        <v>-0.379135158058041</v>
-      </c>
-      <c r="C51">
-        <v>-0.5779644916580863</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+    </row>
+    <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B52">
-        <v>-0.3996235179026385</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+    </row>
+    <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>

--- a/3_Component_Results/IMPORT/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/IMPORT/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -1397,7 +1397,7 @@
         <v>17.02802237146928</v>
       </c>
       <c r="K24">
-        <v>-6.967227042097058</v>
+        <v>-8.056686313420776</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1429,10 +1429,10 @@
         <v>17.23991873753577</v>
       </c>
       <c r="J25">
-        <v>-6.755330676030574</v>
+        <v>-7.844789947354293</v>
       </c>
       <c r="K25">
-        <v>-0.903566270171986</v>
+        <v>-2.492288476983724</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1461,13 +1461,13 @@
         <v>17.18904010166629</v>
       </c>
       <c r="I26">
-        <v>-6.806209311900055</v>
+        <v>-7.895668583223774</v>
       </c>
       <c r="J26">
-        <v>-0.9544449060414661</v>
+        <v>-2.543167112853204</v>
       </c>
       <c r="K26">
-        <v>2.149467210557695</v>
+        <v>-2.64959566916621</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1493,16 +1493,16 @@
         <v>17.23654501000749</v>
       </c>
       <c r="H27">
-        <v>-6.758704403558852</v>
+        <v>-7.848163674882571</v>
       </c>
       <c r="I27">
-        <v>-0.906939997700263</v>
+        <v>-2.495662204512</v>
       </c>
       <c r="J27">
-        <v>2.196972118898898</v>
+        <v>-2.602090760825007</v>
       </c>
       <c r="K27">
-        <v>-1.666096292023496</v>
+        <v>-0.8533747632109219</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1525,19 +1525,19 @@
         <v>17.24604204570868</v>
       </c>
       <c r="G28">
-        <v>-6.749207367857657</v>
+        <v>-7.838666639181375</v>
       </c>
       <c r="H28">
-        <v>-0.897442961999068</v>
+        <v>-2.486165168810806</v>
       </c>
       <c r="I28">
-        <v>2.206469154600094</v>
+        <v>-2.592593725123812</v>
       </c>
       <c r="J28">
-        <v>-1.656599256322301</v>
+        <v>-0.8438777275097269</v>
       </c>
       <c r="K28">
-        <v>0.7838693821215024</v>
+        <v>1.781949470911521</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1557,22 +1557,22 @@
         <v>16.97686604580839</v>
       </c>
       <c r="F29">
-        <v>-7.018383367757953</v>
+        <v>-8.107842639081671</v>
       </c>
       <c r="G29">
-        <v>-1.166618961899364</v>
+        <v>-2.755341168711102</v>
       </c>
       <c r="H29">
-        <v>1.937293154699798</v>
+        <v>-2.861769725024108</v>
       </c>
       <c r="I29">
-        <v>-1.925775256222597</v>
+        <v>-1.113053727410023</v>
       </c>
       <c r="J29">
-        <v>0.5146933822212063</v>
+        <v>1.512773471011225</v>
       </c>
       <c r="K29">
-        <v>0.2969337395536755</v>
+        <v>-4.130805822877837</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1589,25 +1589,25 @@
         <v>16.92877206585942</v>
       </c>
       <c r="E30">
-        <v>-7.066477347706926</v>
+        <v>-8.155936619030644</v>
       </c>
       <c r="F30">
-        <v>-1.214712941848337</v>
+        <v>-2.803435148660075</v>
       </c>
       <c r="G30">
-        <v>1.889199174750824</v>
+        <v>-2.909863704973081</v>
       </c>
       <c r="H30">
-        <v>-1.97386923617157</v>
+        <v>-1.161147707358996</v>
       </c>
       <c r="I30">
-        <v>0.4665994022722331</v>
+        <v>1.464679491062252</v>
       </c>
       <c r="J30">
-        <v>0.2488397596047023</v>
+        <v>-4.17889980282681</v>
       </c>
       <c r="K30">
-        <v>2.261715318484842</v>
+        <v>-0.02515630166823679</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1621,28 +1621,28 @@
         <v>16.72961485970762</v>
       </c>
       <c r="D31">
-        <v>-7.265634553858717</v>
+        <v>-8.355093825182436</v>
       </c>
       <c r="E31">
-        <v>-1.413870148000129</v>
+        <v>-3.002592354811866</v>
       </c>
       <c r="F31">
-        <v>1.690041968599033</v>
+        <v>-3.109020911124873</v>
       </c>
       <c r="G31">
-        <v>-2.173026442323362</v>
+        <v>-1.360304913510788</v>
       </c>
       <c r="H31">
-        <v>0.2674421961204416</v>
+        <v>1.26552228491046</v>
       </c>
       <c r="I31">
-        <v>0.04968255345291084</v>
+        <v>-4.378057008978601</v>
       </c>
       <c r="J31">
-        <v>2.062558112333051</v>
+        <v>-0.2243135078200282</v>
       </c>
       <c r="K31">
-        <v>-1.063428926328172</v>
+        <v>-0.8901600277517188</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1653,31 +1653,31 @@
         <v>16.44173743810304</v>
       </c>
       <c r="C32">
-        <v>-7.553511975463299</v>
+        <v>-8.642971246787017</v>
       </c>
       <c r="D32">
-        <v>-1.70174756960471</v>
+        <v>-3.290469776416447</v>
       </c>
       <c r="E32">
-        <v>1.402164546994452</v>
+        <v>-3.396898332729454</v>
       </c>
       <c r="F32">
-        <v>-2.460903863927943</v>
+        <v>-1.648182335115369</v>
       </c>
       <c r="G32">
-        <v>-0.02043522548413951</v>
+        <v>0.9776448633058792</v>
       </c>
       <c r="H32">
-        <v>-0.2381948681516703</v>
+        <v>-4.665934430583182</v>
       </c>
       <c r="I32">
-        <v>1.774680690728469</v>
+        <v>-0.5121909294246094</v>
       </c>
       <c r="J32">
-        <v>-1.351306347932753</v>
+        <v>-1.1780374493563</v>
       </c>
       <c r="K32">
-        <v>0.2186585873280181</v>
+        <v>-1.935101045603123</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1685,34 +1685,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>-8.53538668291479</v>
+        <v>-10.45854990725616</v>
       </c>
       <c r="C33">
-        <v>-2.683622277056201</v>
+        <v>-5.106048436885593</v>
       </c>
       <c r="D33">
-        <v>0.4202898395429608</v>
+        <v>-5.212476993198599</v>
       </c>
       <c r="E33">
-        <v>-3.442778571379434</v>
+        <v>-3.463760995584514</v>
       </c>
       <c r="F33">
-        <v>-1.00230993293563</v>
+        <v>-0.8379337971632659</v>
       </c>
       <c r="G33">
-        <v>-1.220069575603161</v>
+        <v>-6.481513091052327</v>
       </c>
       <c r="H33">
-        <v>0.7928059832769783</v>
+        <v>-2.327769589893754</v>
       </c>
       <c r="I33">
-        <v>-2.333181055384244</v>
+        <v>-2.993616109825445</v>
       </c>
       <c r="J33">
-        <v>-0.7632161201234728</v>
+        <v>-3.750679706072268</v>
       </c>
       <c r="K33">
-        <v>1.450687064807739</v>
+        <v>-0.06145210016119695</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1720,34 +1720,34 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>-2.508634998186164</v>
+        <v>-4.146418257367844</v>
       </c>
       <c r="C34">
-        <v>0.5952771184129979</v>
+        <v>-4.252846813680851</v>
       </c>
       <c r="D34">
-        <v>-3.267791292509397</v>
+        <v>-2.504130816066766</v>
       </c>
       <c r="E34">
-        <v>-0.8273226540655934</v>
+        <v>0.1216963823544824</v>
       </c>
       <c r="F34">
-        <v>-1.045082296733124</v>
+        <v>-5.521882911534579</v>
       </c>
       <c r="G34">
-        <v>0.9677932621470153</v>
+        <v>-1.368139410376006</v>
       </c>
       <c r="H34">
-        <v>-2.158193776514207</v>
+        <v>-2.033985930307697</v>
       </c>
       <c r="I34">
-        <v>-0.5882288412534358</v>
+        <v>-2.79104952655452</v>
       </c>
       <c r="J34">
-        <v>1.625674343677777</v>
+        <v>0.8981780793565513</v>
       </c>
       <c r="K34">
-        <v>1.039076654264949</v>
+        <v>0.4649817484139299</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1755,31 +1755,34 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>0.5235491703444699</v>
+        <v>-4.065174135534914</v>
       </c>
       <c r="C35">
-        <v>-3.339519240577924</v>
+        <v>-2.316458137920828</v>
       </c>
       <c r="D35">
-        <v>-0.8990506021341214</v>
+        <v>0.3093690605004195</v>
       </c>
       <c r="E35">
-        <v>-1.116810244801652</v>
+        <v>-5.334210233388642</v>
       </c>
       <c r="F35">
-        <v>0.8960653140784873</v>
+        <v>-1.180466732230069</v>
       </c>
       <c r="G35">
-        <v>-2.229921724582735</v>
+        <v>-1.84631325216176</v>
       </c>
       <c r="H35">
-        <v>-0.6599567893219638</v>
+        <v>-2.603376848408582</v>
       </c>
       <c r="I35">
-        <v>1.553946395609249</v>
+        <v>1.085850757502488</v>
       </c>
       <c r="J35">
-        <v>0.9673487061964214</v>
+        <v>0.6526544265598669</v>
+      </c>
+      <c r="K35">
+        <v>-0.2441609490878097</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1787,28 +1790,34 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>-2.669528172195055</v>
+        <v>-2.079249613080133</v>
       </c>
       <c r="C36">
-        <v>-0.2290595337512519</v>
+        <v>0.5465775853411154</v>
       </c>
       <c r="D36">
-        <v>-0.4468191764187827</v>
+        <v>-5.097001708547946</v>
       </c>
       <c r="E36">
-        <v>1.566056382461357</v>
+        <v>-0.9432582073893732</v>
       </c>
       <c r="F36">
-        <v>-1.559930656199865</v>
+        <v>-1.609104727321064</v>
       </c>
       <c r="G36">
-        <v>0.0100342790609057</v>
+        <v>-2.366168323567887</v>
       </c>
       <c r="H36">
-        <v>2.223937463992118</v>
+        <v>1.323059282343184</v>
       </c>
       <c r="I36">
-        <v>1.637339774579291</v>
+        <v>0.8898629514005629</v>
+      </c>
+      <c r="J36">
+        <v>-0.006952424247113734</v>
+      </c>
+      <c r="K36">
+        <v>1.259738135287552</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1816,25 +1825,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>-0.3631114343693653</v>
+        <v>0.7313210777328913</v>
       </c>
       <c r="C37">
-        <v>-0.5808710770368961</v>
+        <v>-4.91225821615617</v>
       </c>
       <c r="D37">
-        <v>1.432004481843243</v>
+        <v>-0.7585147149975973</v>
       </c>
       <c r="E37">
-        <v>-1.693982556817979</v>
+        <v>-1.424361234929288</v>
       </c>
       <c r="F37">
-        <v>-0.1240176215572077</v>
+        <v>-2.18142483117611</v>
       </c>
       <c r="G37">
-        <v>2.089885563374005</v>
+        <v>1.50780277473496</v>
       </c>
       <c r="H37">
-        <v>1.503287873961177</v>
+        <v>1.074606443792339</v>
+      </c>
+      <c r="I37">
+        <v>0.1777910681446622</v>
+      </c>
+      <c r="J37">
+        <v>1.444481627679328</v>
+      </c>
+      <c r="K37">
+        <v>1.851502671729013</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1842,22 +1860,34 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.5819936368449443</v>
+        <v>-5.105156740230972</v>
       </c>
       <c r="C38">
-        <v>1.430881922035195</v>
+        <v>-0.9514132390723986</v>
       </c>
       <c r="D38">
-        <v>-1.695105116626027</v>
+        <v>-1.617259759004089</v>
       </c>
       <c r="E38">
-        <v>-0.125140181365256</v>
+        <v>-2.374323355250912</v>
       </c>
       <c r="F38">
-        <v>2.088763003565956</v>
+        <v>1.314904250660159</v>
       </c>
       <c r="G38">
-        <v>1.502165314153129</v>
+        <v>0.8817079197175375</v>
+      </c>
+      <c r="H38">
+        <v>-0.01510745593013913</v>
+      </c>
+      <c r="I38">
+        <v>1.251583103604527</v>
+      </c>
+      <c r="J38">
+        <v>1.658604147654212</v>
+      </c>
+      <c r="K38">
+        <v>-0.6382024769694439</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1865,19 +1895,34 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>1.838816025169354</v>
+        <v>-0.3421915800502259</v>
       </c>
       <c r="C39">
-        <v>-1.287171013491868</v>
+        <v>-1.008038099981917</v>
       </c>
       <c r="D39">
-        <v>0.2827939217689028</v>
+        <v>-1.765101696228739</v>
       </c>
       <c r="E39">
-        <v>2.496697106700115</v>
+        <v>1.924125909682332</v>
       </c>
       <c r="F39">
-        <v>1.910099417287288</v>
+        <v>1.49092957873971</v>
+      </c>
+      <c r="G39">
+        <v>0.5941142030920336</v>
+      </c>
+      <c r="H39">
+        <v>1.860804762626699</v>
+      </c>
+      <c r="I39">
+        <v>2.267825806676385</v>
+      </c>
+      <c r="J39">
+        <v>-0.02898081794727114</v>
+      </c>
+      <c r="K39">
+        <v>0.5598170418495986</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1885,16 +1930,34 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.9882456780315083</v>
+        <v>-0.9817114683876786</v>
       </c>
       <c r="C40">
-        <v>0.5817192572292627</v>
+        <v>-1.738775064634501</v>
       </c>
       <c r="D40">
-        <v>2.795622442160475</v>
+        <v>1.950452541276569</v>
       </c>
       <c r="E40">
-        <v>2.209024752747648</v>
+        <v>1.517256210333948</v>
+      </c>
+      <c r="F40">
+        <v>0.6204408346862713</v>
+      </c>
+      <c r="G40">
+        <v>1.887131394220937</v>
+      </c>
+      <c r="H40">
+        <v>2.294152438270622</v>
+      </c>
+      <c r="I40">
+        <v>-0.002654186353033383</v>
+      </c>
+      <c r="J40">
+        <v>0.5861436734438363</v>
+      </c>
+      <c r="K40">
+        <v>0.4572641887935098</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1902,13 +1965,34 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0.646449478347877</v>
+        <v>-1.640936427035204</v>
       </c>
       <c r="C41">
-        <v>2.860352663279089</v>
+        <v>2.048291178875867</v>
       </c>
       <c r="D41">
-        <v>2.273754973866262</v>
+        <v>1.615094847933246</v>
+      </c>
+      <c r="E41">
+        <v>0.718279472285569</v>
+      </c>
+      <c r="F41">
+        <v>1.984970031820235</v>
+      </c>
+      <c r="G41">
+        <v>2.39199107586992</v>
+      </c>
+      <c r="H41">
+        <v>0.09518445124626429</v>
+      </c>
+      <c r="I41">
+        <v>0.683982311043134</v>
+      </c>
+      <c r="J41">
+        <v>0.5551028263928075</v>
+      </c>
+      <c r="K41">
+        <v>0.1623546509229741</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1916,10 +2000,34 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>4.580336753334916</v>
+        <v>2.415062601821465</v>
       </c>
       <c r="C42">
-        <v>3.993739063922089</v>
+        <v>1.981866270878843</v>
+      </c>
+      <c r="D42">
+        <v>1.085050895231167</v>
+      </c>
+      <c r="E42">
+        <v>2.351741454765833</v>
+      </c>
+      <c r="F42">
+        <v>2.758762498815518</v>
+      </c>
+      <c r="G42">
+        <v>0.4619558741918621</v>
+      </c>
+      <c r="H42">
+        <v>1.050753733988732</v>
+      </c>
+      <c r="I42">
+        <v>0.9218742493384053</v>
+      </c>
+      <c r="J42">
+        <v>0.5291260738685719</v>
+      </c>
+      <c r="K42">
+        <v>0.002169620121424964</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1927,55 +2035,217 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>2.938046022028013</v>
+        <v>3.478476033585537</v>
+      </c>
+      <c r="C43">
+        <v>2.58166065793786</v>
+      </c>
+      <c r="D43">
+        <v>3.848351217472526</v>
+      </c>
+      <c r="E43">
+        <v>4.255372261522211</v>
+      </c>
+      <c r="F43">
+        <v>1.958565636898555</v>
+      </c>
+      <c r="G43">
+        <v>2.547363496695425</v>
+      </c>
+      <c r="H43">
+        <v>2.418484012045099</v>
+      </c>
+      <c r="I43">
+        <v>2.025735836575265</v>
+      </c>
+      <c r="J43">
+        <v>1.498779382828118</v>
+      </c>
+      <c r="K43">
+        <v>0.9313234029264381</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="B44">
+        <v>1.584099193749569</v>
+      </c>
+      <c r="C44">
+        <v>2.850789753284235</v>
+      </c>
+      <c r="D44">
+        <v>3.25781079733392</v>
+      </c>
+      <c r="E44">
+        <v>0.9610041727102643</v>
+      </c>
+      <c r="F44">
+        <v>1.549802032507134</v>
+      </c>
+      <c r="G44">
+        <v>1.420922547856807</v>
+      </c>
+      <c r="H44">
+        <v>1.028174372386974</v>
+      </c>
+      <c r="I44">
+        <v>0.5012179186398271</v>
+      </c>
+      <c r="J44">
+        <v>-0.06623806126185294</v>
+      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="B45">
+        <v>2.466562918591728</v>
+      </c>
+      <c r="C45">
+        <v>2.873583962641413</v>
+      </c>
+      <c r="D45">
+        <v>0.5767773380177572</v>
+      </c>
+      <c r="E45">
+        <v>1.165575197814627</v>
+      </c>
+      <c r="F45">
+        <v>1.0366957131643</v>
+      </c>
+      <c r="G45">
+        <v>0.643947537694467</v>
+      </c>
+      <c r="H45">
+        <v>0.1169910839473201</v>
+      </c>
+      <c r="I45">
+        <v>-0.45046489595436</v>
+      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="B46">
+        <v>2.246662553384068</v>
+      </c>
+      <c r="C46">
+        <v>-0.05014407123958764</v>
+      </c>
+      <c r="D46">
+        <v>0.5386537885572821</v>
+      </c>
+      <c r="E46">
+        <v>0.4097743039069556</v>
+      </c>
+      <c r="F46">
+        <v>0.01702612843712215</v>
+      </c>
+      <c r="G46">
+        <v>-0.5099303253100248</v>
+      </c>
+      <c r="H46">
+        <v>-1.077386305211705</v>
+      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="B47">
+        <v>-0.4928110405894273</v>
+      </c>
+      <c r="C47">
+        <v>0.09598681920744241</v>
+      </c>
+      <c r="D47">
+        <v>-0.03289266544288409</v>
+      </c>
+      <c r="E47">
+        <v>-0.4256408409127175</v>
+      </c>
+      <c r="F47">
+        <v>-0.9525972946598644</v>
+      </c>
+      <c r="G47">
+        <v>-1.520053274561544</v>
+      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48">
+        <v>0.2881944199355046</v>
+      </c>
+      <c r="C48">
+        <v>0.1593149352851781</v>
+      </c>
+      <c r="D48">
+        <v>-0.2334332401846553</v>
+      </c>
+      <c r="E48">
+        <v>-0.7603896939318022</v>
+      </c>
+      <c r="F48">
+        <v>-1.327845673833482</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49">
+        <v>-0.2265482812103926</v>
+      </c>
+      <c r="C49">
+        <v>-0.6192964566802259</v>
+      </c>
+      <c r="D49">
+        <v>-1.146252910427373</v>
+      </c>
+      <c r="E49">
+        <v>-1.713708890329053</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50">
+        <v>-0.5033433667621097</v>
+      </c>
+      <c r="C50">
+        <v>-1.030299820509257</v>
+      </c>
+      <c r="D50">
+        <v>-1.597755800410937</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51">
+        <v>-1.152650332186175</v>
+      </c>
+      <c r="C51">
+        <v>-1.720106312087855</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52">
+        <v>-2.040355454506476</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>

--- a/3_Component_Results/IMPORT/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/IMPORT/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -614,21 +614,6 @@
       <c r="F2">
         <v>6.539789695468809</v>
       </c>
-      <c r="G2">
-        <v>7.788423147707714</v>
-      </c>
-      <c r="H2">
-        <v>7.84258229064643</v>
-      </c>
-      <c r="I2">
-        <v>-2.541935847452085</v>
-      </c>
-      <c r="J2">
-        <v>4.048513823737675</v>
-      </c>
-      <c r="K2">
-        <v>-3.65782291729413</v>
-      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
@@ -655,15 +640,6 @@
       <c r="H3">
         <v>3.47201312114522</v>
       </c>
-      <c r="I3">
-        <v>-4.234323619886585</v>
-      </c>
-      <c r="J3">
-        <v>-5.91640161310544</v>
-      </c>
-      <c r="K3">
-        <v>-0.07812335641517998</v>
-      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
@@ -684,21 +660,6 @@
       <c r="F4">
         <v>3.105087001187624</v>
       </c>
-      <c r="G4">
-        <v>-4.601249739844182</v>
-      </c>
-      <c r="H4">
-        <v>-6.283327733063036</v>
-      </c>
-      <c r="I4">
-        <v>-0.4450494763727761</v>
-      </c>
-      <c r="J4">
-        <v>0.6918544560063788</v>
-      </c>
-      <c r="K4">
-        <v>0.02530780876220384</v>
-      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
@@ -725,15 +686,6 @@
       <c r="H5">
         <v>-0.6888149560869109</v>
       </c>
-      <c r="I5">
-        <v>-1.355361603331086</v>
-      </c>
-      <c r="J5">
-        <v>-2.783831066244456</v>
-      </c>
-      <c r="K5">
-        <v>-2.535453976003647</v>
-      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
@@ -754,21 +706,6 @@
       <c r="F6">
         <v>-1.100090491559506</v>
       </c>
-      <c r="G6">
-        <v>-1.766637138803681</v>
-      </c>
-      <c r="H6">
-        <v>-3.195106601717051</v>
-      </c>
-      <c r="I6">
-        <v>-2.946729511476242</v>
-      </c>
-      <c r="J6">
-        <v>0.4847420472794327</v>
-      </c>
-      <c r="K6">
-        <v>-0.3256240869557202</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
@@ -795,15 +732,6 @@
       <c r="H7">
         <v>0.7215152337319595</v>
       </c>
-      <c r="I7">
-        <v>-0.08885090050319348</v>
-      </c>
-      <c r="J7">
-        <v>-2.30554850234066</v>
-      </c>
-      <c r="K7">
-        <v>-1.11045427410554</v>
-      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
@@ -824,21 +752,6 @@
       <c r="F8">
         <v>1.361317168305584</v>
       </c>
-      <c r="G8">
-        <v>0.550951034070431</v>
-      </c>
-      <c r="H8">
-        <v>-1.665746567767036</v>
-      </c>
-      <c r="I8">
-        <v>-0.4706523395319154</v>
-      </c>
-      <c r="J8">
-        <v>1.885883910119667</v>
-      </c>
-      <c r="K8">
-        <v>2.67322279758254</v>
-      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
@@ -865,15 +778,6 @@
       <c r="H9">
         <v>1.813167280850892</v>
       </c>
-      <c r="I9">
-        <v>2.600506168313764</v>
-      </c>
-      <c r="J9">
-        <v>-1.432572744388152</v>
-      </c>
-      <c r="K9">
-        <v>-0.3112167028359337</v>
-      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
@@ -894,21 +798,6 @@
       <c r="F10">
         <v>3.171003132903276</v>
       </c>
-      <c r="G10">
-        <v>3.958342020366148</v>
-      </c>
-      <c r="H10">
-        <v>-0.07473689233576786</v>
-      </c>
-      <c r="I10">
-        <v>1.04661914921645</v>
-      </c>
-      <c r="J10">
-        <v>0.573013998685834</v>
-      </c>
-      <c r="K10">
-        <v>-0.3501652793966519</v>
-      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
@@ -935,15 +824,6 @@
       <c r="H11">
         <v>0.6507309866953819</v>
       </c>
-      <c r="I11">
-        <v>-0.272448291387104</v>
-      </c>
-      <c r="J11">
-        <v>0.8168543950249219</v>
-      </c>
-      <c r="K11">
-        <v>0.258268530866405</v>
-      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
@@ -964,21 +844,6 @@
       <c r="F12">
         <v>0.2779030408509229</v>
       </c>
-      <c r="G12">
-        <v>-0.645276237231563</v>
-      </c>
-      <c r="H12">
-        <v>0.4440264491804629</v>
-      </c>
-      <c r="I12">
-        <v>-0.114559414978054</v>
-      </c>
-      <c r="J12">
-        <v>-0.2942650682932351</v>
-      </c>
-      <c r="K12">
-        <v>0.09918592472438781</v>
-      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
@@ -1005,15 +870,6 @@
       <c r="H13">
         <v>-1.185905389723969</v>
       </c>
-      <c r="I13">
-        <v>-0.7924543967063462</v>
-      </c>
-      <c r="J13">
-        <v>0.1846099143720617</v>
-      </c>
-      <c r="K13">
-        <v>-0.4731291047085751</v>
-      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
@@ -1034,21 +890,6 @@
       <c r="F14">
         <v>-1.300602241304103</v>
       </c>
-      <c r="G14">
-        <v>-0.9071512482864804</v>
-      </c>
-      <c r="H14">
-        <v>0.06991306279192749</v>
-      </c>
-      <c r="I14">
-        <v>-0.5878259562887093</v>
-      </c>
-      <c r="J14">
-        <v>0.03670967370446621</v>
-      </c>
-      <c r="K14">
-        <v>-0.8395235127057944</v>
-      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
@@ -1075,15 +916,6 @@
       <c r="H15">
         <v>0.1068749174920441</v>
       </c>
-      <c r="I15">
-        <v>-0.7693582689182165</v>
-      </c>
-      <c r="J15">
-        <v>0.530286488689606</v>
-      </c>
-      <c r="K15">
-        <v>0.4659284474827899</v>
-      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
@@ -1104,21 +936,6 @@
       <c r="F16">
         <v>0.2168765145438798</v>
       </c>
-      <c r="G16">
-        <v>-0.6593566718663808</v>
-      </c>
-      <c r="H16">
-        <v>0.6402880857414417</v>
-      </c>
-      <c r="I16">
-        <v>0.5759300445346256</v>
-      </c>
-      <c r="J16">
-        <v>-1.752329948924772</v>
-      </c>
-      <c r="K16">
-        <v>0.3387401927482998</v>
-      </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
@@ -1145,15 +962,6 @@
       <c r="H17">
         <v>-1.472819921932633</v>
       </c>
-      <c r="I17">
-        <v>0.6182502197404385</v>
-      </c>
-      <c r="J17">
-        <v>-1.380177545285513</v>
-      </c>
-      <c r="K17">
-        <v>0.1245328521850193</v>
-      </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
@@ -1186,9 +994,6 @@
       <c r="J18">
         <v>-0.813299860230543</v>
       </c>
-      <c r="K18">
-        <v>2.271070547289413</v>
-      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
@@ -1215,15 +1020,6 @@
       <c r="H19">
         <v>-0.9372042230255071</v>
       </c>
-      <c r="I19">
-        <v>2.147166184494449</v>
-      </c>
-      <c r="J19">
-        <v>-0.6578883902461889</v>
-      </c>
-      <c r="K19">
-        <v>-0.2479144373244031</v>
-      </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
@@ -1256,9 +1052,6 @@
       <c r="J20">
         <v>0.1416539432047756</v>
       </c>
-      <c r="K20">
-        <v>0.1762496644844505</v>
-      </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
@@ -1285,15 +1078,6 @@
       <c r="H21">
         <v>0.3531845948989742</v>
       </c>
-      <c r="I21">
-        <v>0.3877803161786491</v>
-      </c>
-      <c r="J21">
-        <v>1.361794668302932</v>
-      </c>
-      <c r="K21">
-        <v>1.019111240892582</v>
-      </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
@@ -1326,9 +1110,6 @@
       <c r="J22">
         <v>-0.2226353585632259</v>
       </c>
-      <c r="K22">
-        <v>2.64932201064622</v>
-      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
@@ -1358,12 +1139,6 @@
       <c r="I23">
         <v>-0.02516852226714095</v>
       </c>
-      <c r="J23">
-        <v>2.846788846942305</v>
-      </c>
-      <c r="K23">
-        <v>17.27248574365187</v>
-      </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
@@ -1390,15 +1165,6 @@
       <c r="H24">
         <v>-0.269631894449724</v>
       </c>
-      <c r="I24">
-        <v>2.602325474759722</v>
-      </c>
-      <c r="J24">
-        <v>17.02802237146928</v>
-      </c>
-      <c r="K24">
-        <v>-8.056686313420776</v>
-      </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
@@ -1466,9 +1232,6 @@
       <c r="J26">
         <v>-2.543167112853204</v>
       </c>
-      <c r="K26">
-        <v>-2.64959566916621</v>
-      </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
@@ -1498,12 +1261,6 @@
       <c r="I27">
         <v>-2.495662204512</v>
       </c>
-      <c r="J27">
-        <v>-2.602090760825007</v>
-      </c>
-      <c r="K27">
-        <v>-0.8533747632109219</v>
-      </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
@@ -1530,15 +1287,6 @@
       <c r="H28">
         <v>-2.486165168810806</v>
       </c>
-      <c r="I28">
-        <v>-2.592593725123812</v>
-      </c>
-      <c r="J28">
-        <v>-0.8438777275097269</v>
-      </c>
-      <c r="K28">
-        <v>1.781949470911521</v>
-      </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
@@ -1606,9 +1354,6 @@
       <c r="J30">
         <v>-4.17889980282681</v>
       </c>
-      <c r="K30">
-        <v>-0.02515630166823679</v>
-      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
@@ -1638,12 +1383,6 @@
       <c r="I31">
         <v>-4.378057008978601</v>
       </c>
-      <c r="J31">
-        <v>-0.2243135078200282</v>
-      </c>
-      <c r="K31">
-        <v>-0.8901600277517188</v>
-      </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
@@ -1670,15 +1409,6 @@
       <c r="H32">
         <v>-4.665934430583182</v>
       </c>
-      <c r="I32">
-        <v>-0.5121909294246094</v>
-      </c>
-      <c r="J32">
-        <v>-1.1780374493563</v>
-      </c>
-      <c r="K32">
-        <v>-1.935101045603123</v>
-      </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
@@ -1746,9 +1476,6 @@
       <c r="J34">
         <v>0.8981780793565513</v>
       </c>
-      <c r="K34">
-        <v>0.4649817484139299</v>
-      </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
@@ -1778,12 +1505,6 @@
       <c r="I35">
         <v>1.085850757502488</v>
       </c>
-      <c r="J35">
-        <v>0.6526544265598669</v>
-      </c>
-      <c r="K35">
-        <v>-0.2441609490878097</v>
-      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
@@ -1810,15 +1531,6 @@
       <c r="H36">
         <v>1.323059282343184</v>
       </c>
-      <c r="I36">
-        <v>0.8898629514005629</v>
-      </c>
-      <c r="J36">
-        <v>-0.006952424247113734</v>
-      </c>
-      <c r="K36">
-        <v>1.259738135287552</v>
-      </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
@@ -1886,9 +1598,6 @@
       <c r="J38">
         <v>1.658604147654212</v>
       </c>
-      <c r="K38">
-        <v>-0.6382024769694439</v>
-      </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
@@ -1918,12 +1627,6 @@
       <c r="I39">
         <v>2.267825806676385</v>
       </c>
-      <c r="J39">
-        <v>-0.02898081794727114</v>
-      </c>
-      <c r="K39">
-        <v>0.5598170418495986</v>
-      </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
@@ -1950,15 +1653,6 @@
       <c r="H40">
         <v>2.294152438270622</v>
       </c>
-      <c r="I40">
-        <v>-0.002654186353033383</v>
-      </c>
-      <c r="J40">
-        <v>0.5861436734438363</v>
-      </c>
-      <c r="K40">
-        <v>0.4572641887935098</v>
-      </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
@@ -2026,9 +1720,6 @@
       <c r="J42">
         <v>0.5291260738685719</v>
       </c>
-      <c r="K42">
-        <v>0.002169620121424964</v>
-      </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
@@ -2058,12 +1749,6 @@
       <c r="I43">
         <v>2.025735836575265</v>
       </c>
-      <c r="J43">
-        <v>1.498779382828118</v>
-      </c>
-      <c r="K43">
-        <v>0.9313234029264381</v>
-      </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
@@ -2089,12 +1774,6 @@
       </c>
       <c r="H44">
         <v>1.028174372386974</v>
-      </c>
-      <c r="I44">
-        <v>0.5012179186398271</v>
-      </c>
-      <c r="J44">
-        <v>-0.06623806126185294</v>
       </c>
     </row>
     <row r="45" spans="1:11">
